--- a/biology/Zoologie/Rymosia_foersteri/Rymosia_foersteri.xlsx
+++ b/biology/Zoologie/Rymosia_foersteri/Rymosia_foersteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhysomia foersteri
 Rymosia foersteri est une espèce fossile d'insectes diptères de la famille des Mycetophilidae.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Rhymosia foersteri est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse [1],[2].
-Fossiles
-Cette espèce a deux collections qui viennent de Kleinkembs dans le pays de Bade en Bade-Wurtemberg et des marnes en plaquettes de Brunstatt dans le Haut-Rhin en Alsace[2].
-Holotype
-L'holotype et échantillon R1024 de la collection Mieg et du musée d'histoire naturelle de Bâle vient de la localité de Kleinkembs[2].
-Renommages
-Cette espèce est renommée Rymosia foersteri par Neal Luit Evenhuis en 1994[3] et Dalton De Souza Amorim (d) en 2021[4],[2].
-Étymologie
-L'épithète spécifique foersteri rend hommage au paléontologue et entomologiste allemand Bruno Förster (1852-1924).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Rhymosia foersteri est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse ,.
 </t>
         </is>
       </c>
@@ -548,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de petite taille, assez mal conservé ; de teinte brunâtre. Tête petite, arrondie ; deux yeux non contigus. Thorax arrondi. Abdomen grêle, six segments visibles. Aile avec nervation encore déchiffrable ; Sc faible ; R se termine au quart externe ; Rs légèrement arqué ; M relié à Rs par une nervure oblique. M se bifurque peu au delà de cette nervure ; Cu se bifurque plus près de la base de l'aile. »[1].
-Dimensions
-La longueur totale est de 6 mm[1].
-Affinités
-« La nervation de l'aile est celle du g. Rhysomia Winn. L'Insecte de Brunnstatt décrit par Förster sous le nom de Boeltina cf. Meigeniana, appartient à ce groupe. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a deux collections qui viennent de Kleinkembs dans le pays de Bade en Bade-Wurtemberg et des marnes en plaquettes de Brunstatt dans le Haut-Rhin en Alsace.
 </t>
         </is>
       </c>
@@ -585,13 +591,239 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Holotype</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype et échantillon R1024 de la collection Mieg et du musée d'histoire naturelle de Bâle vient de la localité de Kleinkembs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Renommages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est renommée Rymosia foersteri par Neal Luit Evenhuis en 1994 et Dalton De Souza Amorim (d) en 2021,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique foersteri rend hommage au paléontologue et entomologiste allemand Bruno Förster (1852-1924).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de petite taille, assez mal conservé ; de teinte brunâtre. Tête petite, arrondie ; deux yeux non contigus. Thorax arrondi. Abdomen grêle, six segments visibles. Aile avec nervation encore déchiffrable ; Sc faible ; R se termine au quart externe ; Rs légèrement arqué ; M relié à Rs par une nervure oblique. M se bifurque peu au delà de cette nervure ; Cu se bifurque plus près de la base de l'aile. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La nervation de l'aile est celle du g. Rhysomia Winn. L'Insecte de Brunnstatt décrit par Förster sous le nom de Boeltina cf. Meigeniana, appartient à ce groupe. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rymosia_foersteri</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les larves des espèces du g. Rhysomia vivent dans les champignons. Ce genre est répandu en Europe, en Amérique du Nord et dans les Indes. »[1].
+« Les larves des espèces du g. Rhysomia vivent dans les champignons. Ce genre est répandu en Europe, en Amérique du Nord et dans les Indes. ».
 </t>
         </is>
       </c>
